--- a/src/WebMarket/WebMarket/App_Data/TemperatureRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/TemperatureRelay.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="TemperatureRelay" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -182,6 +183,15 @@
   </si>
   <si>
     <t>TK-6.png</t>
+  </si>
+  <si>
+    <t>24.07.2013</t>
+  </si>
+  <si>
+    <t>0.08.2012</t>
+  </si>
+  <si>
+    <t>Price update</t>
   </si>
 </sst>
 </file>
@@ -531,7 +541,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +624,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -661,7 +671,7 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -708,7 +718,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -755,7 +765,7 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -802,7 +812,7 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -849,7 +859,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -896,7 +906,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -943,7 +953,7 @@
         <v>39</v>
       </c>
       <c r="B9">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -990,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1037,7 +1047,7 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1083,4 +1093,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/WebMarket/WebMarket/App_Data/TemperatureRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/TemperatureRelay.xlsx
@@ -26,9 +26,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>IsAvailable</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Price update</t>
+  </si>
+  <si>
+    <t>Availability</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,78 +562,78 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>190</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
         <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
       <c r="S2">
         <v>-50</v>
@@ -660,27 +660,27 @@
         <v>125</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>290</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
         <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
       </c>
       <c r="S3">
         <v>-55.9</v>
@@ -707,27 +707,27 @@
         <v>127.9</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>308</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
         <v>24</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
       </c>
       <c r="S4">
         <v>-50</v>
@@ -754,27 +754,27 @@
         <v>125</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>650</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" t="s">
-        <v>25</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -801,27 +801,27 @@
         <v>999</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>305</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
         <v>24</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -848,27 +848,27 @@
         <v>40</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>290</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" t="s">
-        <v>25</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -895,27 +895,27 @@
         <v>125</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>426</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -927,13 +927,13 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" t="s">
         <v>24</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" t="s">
-        <v>25</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -942,27 +942,27 @@
         <v>125</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>487</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -974,13 +974,13 @@
         <v>5</v>
       </c>
       <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" t="s">
         <v>24</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" t="s">
-        <v>25</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -989,27 +989,27 @@
         <v>125</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>457</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1021,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" t="s">
         <v>24</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" t="s">
-        <v>25</v>
       </c>
       <c r="S10">
         <v>-55.9</v>
@@ -1036,27 +1036,27 @@
         <v>127.9</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>586</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1068,13 +1068,13 @@
         <v>5</v>
       </c>
       <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" t="s">
         <v>24</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" t="s">
-        <v>25</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1083,10 +1083,10 @@
         <v>90</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1107,16 +1107,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/WebMarket/WebMarket/App_Data/TemperatureRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/TemperatureRelay.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Producer</t>
   </si>
   <si>
-    <t>IsTopBuyed</t>
-  </si>
-  <si>
-    <t>IsNew</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -192,6 +186,9 @@
   </si>
   <si>
     <t>Availability</t>
+  </si>
+  <si>
+    <t>DisplayClass</t>
   </si>
 </sst>
 </file>
@@ -538,20 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -571,57 +568,54 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
       </c>
       <c r="B2">
         <v>190</v>
@@ -630,45 +624,45 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="R2">
+        <v>-50</v>
+      </c>
+      <c r="S2">
+        <v>125</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="U2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S2">
-        <v>-50</v>
-      </c>
-      <c r="T2">
-        <v>125</v>
-      </c>
-      <c r="U2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>25</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
       </c>
       <c r="B3">
         <v>290</v>
@@ -677,45 +671,45 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3">
+        <v>-55.9</v>
+      </c>
+      <c r="S3">
+        <v>127.9</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3">
-        <v>-55.9</v>
-      </c>
-      <c r="T3">
-        <v>127.9</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
       </c>
       <c r="B4">
         <v>308</v>
@@ -724,45 +718,45 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="R4">
+        <v>-50</v>
+      </c>
+      <c r="S4">
+        <v>125</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4">
-        <v>-50</v>
-      </c>
-      <c r="T4">
-        <v>125</v>
-      </c>
       <c r="U4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>650</v>
@@ -771,45 +765,45 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>999</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>999</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
       </c>
       <c r="B6">
         <v>305</v>
@@ -818,45 +812,45 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
         <v>22</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6">
-        <v>40</v>
-      </c>
       <c r="U6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>290</v>
@@ -865,45 +859,45 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
         <v>22</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>125</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>125</v>
-      </c>
       <c r="U7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>426</v>
@@ -912,45 +906,45 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>125</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>125</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
       </c>
       <c r="B9">
         <v>487</v>
@@ -959,45 +953,45 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" t="s">
         <v>22</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>125</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>125</v>
-      </c>
       <c r="U9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
       </c>
       <c r="B10">
         <v>457</v>
@@ -1006,45 +1000,45 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
         <v>22</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="R10">
+        <v>-55.9</v>
+      </c>
+      <c r="S10">
+        <v>127.9</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10">
-        <v>-55.9</v>
-      </c>
-      <c r="T10">
-        <v>127.9</v>
-      </c>
       <c r="U10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>586</v>
@@ -1053,40 +1047,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
         <v>22</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>90</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>90</v>
-      </c>
       <c r="U11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1107,16 +1101,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
